--- a/inst/extdata/Francisella/label-free_Francisella_annotation.xlsx
+++ b/inst/extdata/Francisella/label-free_Francisella_annotation.xlsx
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
   <si>
     <t>1WT_20_2h_n3_1</t>
   </si>
   <si>
-    <t>treat</t>
-  </si>
-  <si>
     <t>1WT_20_2h_n3_2</t>
   </si>
   <si>
@@ -87,7 +84,28 @@
     <t>biorep</t>
   </si>
   <si>
-    <t>techrep</t>
+    <t>run</t>
+  </si>
+  <si>
+    <t>pheno</t>
+  </si>
+  <si>
+    <t>b_1</t>
+  </si>
+  <si>
+    <t>b_2</t>
+  </si>
+  <si>
+    <t>b_3</t>
+  </si>
+  <si>
+    <t>b_4</t>
+  </si>
+  <si>
+    <t>b_5</t>
+  </si>
+  <si>
+    <t>b_6</t>
   </si>
 </sst>
 </file>
@@ -503,216 +521,216 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/Francisella/label-free_Francisella_annotation.xlsx
+++ b/inst/extdata/Francisella/label-free_Francisella_annotation.xlsx
@@ -87,9 +87,6 @@
     <t>run</t>
   </si>
   <si>
-    <t>pheno</t>
-  </si>
-  <si>
     <t>b_1</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>b_6</t>
+  </si>
+  <si>
+    <t>phenotype</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -529,7 +531,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
@@ -543,7 +545,7 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -554,7 +556,7 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -565,7 +567,7 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -576,7 +578,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -587,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -598,7 +600,7 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -609,7 +611,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -620,7 +622,7 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -631,7 +633,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -642,7 +644,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -653,7 +655,7 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -664,7 +666,7 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -675,7 +677,7 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -686,7 +688,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -697,7 +699,7 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -708,7 +710,7 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -719,7 +721,7 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -730,7 +732,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
